--- a/BOM of Main Board.xlsx
+++ b/BOM of Main Board.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69BB707-AAE8-42BC-BF3C-4E2DA5F743D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0C5DBA-7E5B-4338-8E8A-B0BB80873728}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
   <si>
     <t>Comment</t>
   </si>
@@ -206,6 +207,18 @@
   </si>
   <si>
     <t>LED_CHIP_RED-1608</t>
+  </si>
+  <si>
+    <t>Farnell</t>
+  </si>
+  <si>
+    <t>TME</t>
+  </si>
+  <si>
+    <t>7-215079-4</t>
+  </si>
+  <si>
+    <t>TLV70233DBVR</t>
   </si>
 </sst>
 </file>
@@ -266,7 +279,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -283,15 +296,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -300,6 +321,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -519,29 +543,29 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:C24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="7"/>
+    <col min="1" max="1" width="14.42578125" style="6"/>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="35" style="6" customWidth="1"/>
+    <col min="4" max="4" width="35" style="5" customWidth="1"/>
     <col min="5" max="5" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="10"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -557,193 +581,231 @@
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="F2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+      <c r="F3" s="10">
+        <v>3132405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="F5" s="10">
+        <v>3105912</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+      <c r="F6" s="10">
+        <v>2423240</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="F7" s="10">
+        <v>1772996</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="F8" s="10">
+        <v>2856437</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="F9" s="11">
+        <v>2470822</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="F10" s="11">
+        <v>1748616</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
-        <v>1</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="F11" s="11">
+        <v>3007784</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
-        <v>1</v>
-      </c>
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
+      <c r="F13" s="11">
+        <v>3438512</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
         <v>6</v>
       </c>
       <c r="B14" t="s">
@@ -753,8 +815,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -764,8 +826,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
         <v>1</v>
       </c>
       <c r="B16" t="s">
@@ -776,7 +838,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -787,7 +849,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>2</v>
       </c>
       <c r="B18" t="s">
@@ -798,7 +860,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>3</v>
       </c>
       <c r="B19" t="s">
@@ -809,7 +871,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>2</v>
       </c>
       <c r="B20" t="s">
@@ -820,7 +882,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>5</v>
       </c>
       <c r="B21" t="s">
@@ -831,7 +893,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>3</v>
       </c>
       <c r="B22" t="s">
@@ -842,7 +904,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>1</v>
       </c>
       <c r="B23" t="s">
@@ -853,7 +915,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>5</v>
       </c>
       <c r="B24" t="s">
@@ -879,6 +941,13 @@
     <hyperlink ref="E3" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="E9" r:id="rId10" xr:uid="{1C93F821-3A3D-48A1-AD63-B4B9D554E8A5}"/>
     <hyperlink ref="E10" r:id="rId11" xr:uid="{526A88A3-B23C-42EF-83CB-315DB76DEB50}"/>
+    <hyperlink ref="F3" r:id="rId12" display="https://ee.farnell.com/stmicroelectronics/stm32g431kbt6/mcu-32bit-170mhz-lqfp-32/dp/3132405" xr:uid="{EBFDA821-77FA-4350-96CA-4959C4C05838}"/>
+    <hyperlink ref="F5" r:id="rId13" display="https://ee.farnell.com/silicon-labs/si8660bb-b-iu/digital-isolator-6ch-40-to-125deg/dp/3105912" xr:uid="{19A3CBB0-3150-4DCA-A2A0-3E943E4A464A}"/>
+    <hyperlink ref="F6" r:id="rId14" display="https://ee.farnell.com/silicon-labs/si8620bb-b-is/digital-isolator-8ns-nsoic-8/dp/2423240" xr:uid="{E4659FE1-3771-4FF2-A37B-5DD6027FA298}"/>
+    <hyperlink ref="F7" r:id="rId15" display="https://ee.farnell.com/amp-te-connectivity/215079-4/connector-4way-vertical-1-27/dp/1772996" xr:uid="{313540C5-7C00-4639-8BDF-A33509CDF012}"/>
+    <hyperlink ref="F8" r:id="rId16" display="https://ee.farnell.com/samtec/ftsh-105-01-l-dv-k-p/connector-header-10pos-2row-1/dp/2856437" xr:uid="{0BF0C72E-99B9-44B4-B2D8-498282357508}"/>
+    <hyperlink ref="G6" r:id="rId17" xr:uid="{2E9DEF71-22D5-48A9-9DB6-A87DFE948BF3}"/>
+    <hyperlink ref="G7" r:id="rId18" xr:uid="{B55E602C-17DC-49E9-91FF-4C6A1608DDE9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
